--- a/biology/Biologie cellulaire et moléculaire/Tente_de_l'hypophyse/Tente_de_l'hypophyse.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Tente_de_l'hypophyse/Tente_de_l'hypophyse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tente_de_l%27hypophyse</t>
+          <t>Tente_de_l'hypophyse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une cloison issue de la face interne de la dure-mère crânienne (tout comme la tente du cervelet et la Faux du cerveau). Horizontale, elle est tendue au dessus de la Selle turcique. elle s'insert au bord supérieur de la lame quadrilatère de l'os sphénoïde en arrière, à la lèvre postérieure de la gouttière optique et aux quatre apophyses clinoïdes (antérieures et postérieures) en avant. Sur son trajet, elle s'unit au Sinus caverneux.
 Elle présente deux feuillets : 
